--- a/UberEats.xlsx
+++ b/UberEats.xlsx
@@ -58,7 +58,7 @@
     <t>Pass1213</t>
   </si>
   <si>
-    <t>hammad_zaidi</t>
+    <t>hammad_saqib</t>
   </si>
   <si>
     <t>Pass1415</t>
